--- a/AD010_内部定義/BB010_メッセージ一覧/BB010020_ログメッセージ区分.xlsx
+++ b/AD010_内部定義/BB010_メッセージ一覧/BB010020_ログメッセージ区分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BB010_メッセージ一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703C1BA7-ABB1-4D6F-8E20-D7027EF798DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C932B-E07B-421A-B570-0EB2DE9017D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12070" yWindow="3460" windowWidth="12140" windowHeight="10870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="5340" windowWidth="15490" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログメッセージ一覧" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18"/>
